--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,59 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40633</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +745,11 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,14 +771,17 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3">
         <v>1200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,14 +803,17 @@
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
         <v>-1200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,37 +825,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>1600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,37 +919,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,37 +964,41 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
         <v>6100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,28 +1006,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-9000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,28 +1052,31 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-12200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-14800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-12400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1047,103 +1084,112 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-6200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-8600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-30000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-22900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-30000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-9100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,57 +1436,63 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F32" s="3">
         <v>12200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>14800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>12400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-30000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-30000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40633</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,23 +1619,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>15600</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,23 +1681,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>10000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1634,8 +1730,8 @@
       <c r="F44" s="3">
         <v>100</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1649,23 +1745,26 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,23 +1777,26 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>18500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21800</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
       </c>
@@ -1707,23 +1809,26 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>105200</v>
+      </c>
+      <c r="E47" s="3">
         <v>91500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>105400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>114400</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
@@ -1736,23 +1841,26 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E48" s="3">
         <v>29000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>30200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>30800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -1765,8 +1873,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +1969,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1866,8 +1986,8 @@
       <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,23 +2033,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E54" s="3">
         <v>136100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>154300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>167200</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2095,23 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -1994,17 +2125,20 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E58" s="3">
         <v>10000</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2023,23 +2157,26 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2052,23 +2189,26 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E60" s="3">
         <v>13000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2081,8 +2221,11 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2253,11 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2119,13 +2265,13 @@
         <v>1500</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>1400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,23 +2381,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E66" s="3">
         <v>14500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,23 +2555,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-256700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-255500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-225600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-210700</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,23 +2683,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>121500</v>
+      </c>
+      <c r="E76" s="3">
         <v>121600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>149400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>163600</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40633</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-30000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
         <v>1200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3022,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-5700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3164,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-20300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3338,43 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E100" s="3">
         <v>10000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>39900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>25500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>149100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3402,39 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>12100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>143200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,65 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
-        <v>43646</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>40633</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -748,8 +754,14 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,14 +786,20 @@
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,14 +824,20 @@
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>-1200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,40 +850,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
+        <v>600</v>
+      </c>
+      <c r="J12" s="3">
         <v>2600</v>
       </c>
-      <c r="H12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,8 +922,14 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -922,40 +960,52 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>1900</v>
       </c>
-      <c r="H15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,40 +1015,48 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
-        <v>5600</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1006,31 +1064,37 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6100</v>
       </c>
-      <c r="F18" s="3">
-        <v>-2700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-8100</v>
       </c>
-      <c r="H18" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-9000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1107,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1052,31 +1118,37 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G20" s="3">
         <v>-23800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-12200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-14800</v>
       </c>
-      <c r="H20" s="3">
-        <v>-12400</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,48 +1156,54 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-28700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-21000</v>
       </c>
-      <c r="H21" s="3">
-        <v>-16800</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-8600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1133,46 +1211,58 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-30000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J23" s="3">
         <v>-22900</v>
       </c>
-      <c r="H23" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,11 +1272,11 @@
       <c r="E24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>4</v>
@@ -1203,8 +1293,14 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-30000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J26" s="3">
         <v>-22900</v>
       </c>
-      <c r="H26" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-30000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-22900</v>
       </c>
-      <c r="H27" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1340,22 +1460,22 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-5400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-6900</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1363,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1559,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1436,63 +1574,75 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G32" s="3">
         <v>23800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I32" s="3">
         <v>12200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>14800</v>
       </c>
-      <c r="H32" s="3">
-        <v>12400</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-30000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-22900</v>
       </c>
-      <c r="H33" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-30000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-22900</v>
       </c>
-      <c r="H35" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
-        <v>43646</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>40633</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,40 +1790,48 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>150100</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="3">
         <v>9100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>15600</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,48 +1862,60 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3">
         <v>6600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>100</v>
-      </c>
-      <c r="E44" s="3">
-        <v>100</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
@@ -1736,11 +1926,11 @@
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -1748,136 +1938,166 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F45" s="3">
         <v>4200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>5900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>155800</v>
+      </c>
+      <c r="F46" s="3">
         <v>9000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>15500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="3">
         <v>18500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>21800</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>226100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>109600</v>
+      </c>
+      <c r="F47" s="3">
         <v>105200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>91500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3">
         <v>105400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>114400</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>28400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>29000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3">
         <v>30200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>30800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1908,8 +2128,14 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,16 +2204,22 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>300</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -1992,11 +2230,11 @@
       <c r="H52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>300</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2004,8 +2242,14 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,40 +2280,52 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>265700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>265400</v>
+      </c>
+      <c r="F54" s="3">
         <v>142800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>136100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="3">
         <v>154300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>167200</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,55 +2354,63 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>15600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>10000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2160,72 +2426,90 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F60" s="3">
         <v>19800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2256,40 +2540,52 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
         <v>1400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,40 +2692,52 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F66" s="3">
         <v>21300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>14500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2898,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-147400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-256700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-255500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="3">
         <v>-225600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-210700</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3050,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>261400</v>
+      </c>
+      <c r="F76" s="3">
         <v>121500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>121600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
         <v>149400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>163600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
-        <v>43646</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>40633</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-30000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="I81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-22900</v>
       </c>
-      <c r="H81" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,40 +3227,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>1900</v>
       </c>
-      <c r="H83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,40 +3451,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-9500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-7500</v>
       </c>
-      <c r="H89" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-4900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-5700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,8 +3509,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3082,29 +3522,35 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,40 +3619,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-113800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-7600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-20300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-19600</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,40 +3825,52 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>157600</v>
+      </c>
+      <c r="F100" s="3">
         <v>4900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>39900</v>
       </c>
-      <c r="H100" s="3">
-        <v>25500</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>149100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,36 +3901,48 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>147400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>12100</v>
       </c>
-      <c r="H102" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>143200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,65 +665,69 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40633</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,8 +764,11 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -792,14 +799,17 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,14 +840,17 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3">
         <v>-1200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -966,46 +986,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1700</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,46 +1043,50 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>-1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-4200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1064,37 +1094,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,8 +1142,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1118,37 +1152,40 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-12200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1156,54 +1193,57 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-28700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-8600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
@@ -1217,52 +1257,58 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-30000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-22900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1281,8 +1327,8 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-30000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-9100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-30000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1460,25 +1521,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-5400</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6900</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1632,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1574,75 +1644,81 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>12200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-30000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-30000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40633</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,35 +1878,36 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E41" s="3">
         <v>31000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>150100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="3">
         <v>9100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15600</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,35 +1958,38 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>10000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
         <v>6600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
@@ -1906,8 +1999,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1917,23 +2013,23 @@
       <c r="E44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="3">
-        <v>100</v>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="H44" s="3">
         <v>100</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -1944,35 +2040,38 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>5900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -1982,35 +2081,38 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>37200</v>
+      </c>
+      <c r="E46" s="3">
         <v>39600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>155800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="3">
         <v>18500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>21800</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2020,35 +2122,38 @@
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>247300</v>
+      </c>
+      <c r="E47" s="3">
         <v>226100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>109600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>105200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>91500</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3">
         <v>105400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>114400</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2058,35 +2163,38 @@
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
         <v>28400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>29000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>30200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>30800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,34 +2327,37 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,35 +2409,38 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>284600</v>
+      </c>
+      <c r="E54" s="3">
         <v>265700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>265400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>142800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>136100</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3">
         <v>154300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>167200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,8 +2486,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2365,25 +2496,25 @@
         <v>600</v>
       </c>
       <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>300</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2405,15 +2539,15 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>15600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2432,35 +2566,38 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2400</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2470,35 +2607,38 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J60" s="3">
         <v>3500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,34 +2689,37 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1400</v>
+      <c r="H62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>1400</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,35 +2853,38 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>14500</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J66" s="3">
         <v>4900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,35 +3075,38 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-135600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-149000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-147400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-256700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-255500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J72" s="3">
         <v>-225600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-210700</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,35 +3239,38 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>280800</v>
+      </c>
+      <c r="E76" s="3">
         <v>262100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>261400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>121500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>121600</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J76" s="3">
         <v>149400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>163600</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40633</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-30000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,8 +3427,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3238,37 +3437,40 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>-1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-9500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-4700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,8 +3731,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3531,26 +3752,29 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-113800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-20300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,46 +4074,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>157600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>39900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>149100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-119100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>147400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>143200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,69 +665,73 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40633</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,8 +771,11 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,14 +809,17 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -843,14 +853,17 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>-1200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +879,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>500</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="3">
+        <v>600</v>
+      </c>
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>3800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +965,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -989,8 +1009,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,38 +1023,41 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L15" s="3">
-        <v>600</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1700</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,49 +1070,53 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E17" s="3">
         <v>5100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-1300</v>
       </c>
-      <c r="G17" s="3">
-        <v>3700</v>
-      </c>
       <c r="H17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-4200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1094,40 +1124,43 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>4200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-8100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,8 +1176,9 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1152,40 +1186,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1193,40 +1230,43 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1800</v>
       </c>
-      <c r="G21" s="3">
-        <v>-400</v>
-      </c>
       <c r="H21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-28700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1236,17 +1276,17 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1260,55 +1300,61 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E23" s="3">
         <v>13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-30000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-22900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1330,8 +1376,8 @@
       <c r="I24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1348,8 +1394,11 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1438,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H26" s="3">
+        <v>400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-30000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1200</v>
-      </c>
       <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-30000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1570,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1524,25 +1585,25 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-5400</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="H29" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6900</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1553,8 +1614,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1658,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,8 +1702,11 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1644,81 +1714,87 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-30000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1834,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-30000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40633</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1947,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,38 +1965,39 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E41" s="3">
         <v>29600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>31000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>150100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
         <v>9100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -1920,8 +2007,11 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,38 +2051,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
         <v>6600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2002,8 +2095,11 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2016,23 +2112,23 @@
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="I44" s="3">
         <v>100</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2043,38 +2139,41 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2084,38 +2183,41 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E46" s="3">
         <v>37200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>39600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>155800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3">
         <v>18500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21800</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2125,38 +2227,41 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>393600</v>
+      </c>
+      <c r="E47" s="3">
         <v>247300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>226100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>109600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>105200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>91500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" s="3">
         <v>105400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>114400</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2166,8 +2271,11 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2175,29 +2283,29 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
       </c>
       <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>28400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>29000</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>30200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2207,8 +2315,11 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2359,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2403,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,8 +2447,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2341,26 +2461,26 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I52" s="3">
         <v>300</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="L52" s="3">
+        <v>300</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2371,8 +2491,11 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,38 +2535,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>408400</v>
+      </c>
+      <c r="E54" s="3">
         <v>284600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>265700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>265400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>142800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>136100</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3">
         <v>154300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>167200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2453,8 +2579,11 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2599,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,37 +2617,38 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>600</v>
       </c>
       <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>300</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -2528,8 +2659,11 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2542,15 +2676,15 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>15600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2569,38 +2703,41 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
         <v>3200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2610,38 +2747,41 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13000</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3">
         <v>3500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2651,13 +2791,16 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2692,8 +2835,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2703,26 +2849,26 @@
       <c r="E62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1400</v>
+      <c r="I62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>1400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>1400</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -2733,8 +2879,11 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2923,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2967,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,38 +3011,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14500</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -2897,8 +3055,11 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3075,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3117,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3161,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3037,8 +3205,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,38 +3249,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-150600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-135600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-149000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-147400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-256700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-255500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3">
         <v>-225600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-210700</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3119,8 +3293,11 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3337,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3381,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,38 +3425,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>391800</v>
+      </c>
+      <c r="E76" s="3">
         <v>280800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>262100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>261400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>121500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>121600</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3">
         <v>149400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>163600</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3283,8 +3469,11 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3513,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40633</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-30000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3626,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3440,37 +3639,40 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-1800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3756,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3800,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3844,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +3888,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-5700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,8 +3952,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3755,26 +3976,29 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4038,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4082,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-144800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-113800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4146,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4188,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4232,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4276,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4320,55 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>135200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>157600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>39900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>149100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4408,51 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-119100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>147400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>143200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -1989,8 +1989,8 @@
       <c r="I41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>9100</v>
       </c>
       <c r="K41" s="3">
         <v>9100</v>
@@ -2077,8 +2077,8 @@
       <c r="I43" s="3">
         <v>10000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>6600</v>
       </c>
       <c r="K43" s="3">
         <v>6600</v>
@@ -2121,8 +2121,8 @@
       <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>100</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2165,8 +2165,8 @@
       <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>2600</v>
       </c>
       <c r="K45" s="3">
         <v>2600</v>
@@ -2209,8 +2209,8 @@
       <c r="I46" s="3">
         <v>15500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
+      <c r="J46" s="3">
+        <v>18500</v>
       </c>
       <c r="K46" s="3">
         <v>18500</v>
@@ -2253,8 +2253,8 @@
       <c r="I47" s="3">
         <v>91500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
+      <c r="J47" s="3">
+        <v>105400</v>
       </c>
       <c r="K47" s="3">
         <v>105400</v>
@@ -2297,8 +2297,8 @@
       <c r="I48" s="3">
         <v>29000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>30200</v>
       </c>
       <c r="K48" s="3">
         <v>30200</v>
@@ -2473,8 +2473,8 @@
       <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2561,8 +2561,8 @@
       <c r="I54" s="3">
         <v>136100</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
+      <c r="J54" s="3">
+        <v>154300</v>
       </c>
       <c r="K54" s="3">
         <v>154300</v>
@@ -2641,8 +2641,8 @@
       <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2729,8 +2729,8 @@
       <c r="I59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3">
+        <v>3200</v>
       </c>
       <c r="K59" s="3">
         <v>3200</v>
@@ -2773,8 +2773,8 @@
       <c r="I60" s="3">
         <v>13000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
+      <c r="J60" s="3">
+        <v>3500</v>
       </c>
       <c r="K60" s="3">
         <v>3500</v>
@@ -2861,8 +2861,8 @@
       <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>1400</v>
       </c>
       <c r="K62" s="3">
         <v>1400</v>
@@ -3037,8 +3037,8 @@
       <c r="I66" s="3">
         <v>14500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
+      <c r="J66" s="3">
+        <v>4900</v>
       </c>
       <c r="K66" s="3">
         <v>4900</v>
@@ -3275,8 +3275,8 @@
       <c r="I72" s="3">
         <v>-255500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
+      <c r="J72" s="3">
+        <v>-225600</v>
       </c>
       <c r="K72" s="3">
         <v>-225600</v>
@@ -3451,8 +3451,8 @@
       <c r="I76" s="3">
         <v>121600</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>149400</v>
       </c>
       <c r="K76" s="3">
         <v>149400</v>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,76 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>40633</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,8 +777,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -812,14 +818,17 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,14 +865,17 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>-1200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -880,52 +892,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>300</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -968,8 +984,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1012,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,38 +1048,41 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1700</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1071,52 +1096,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-4200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,43 +1153,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-9000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1177,8 +1209,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1186,43 +1219,46 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="F20" s="3">
         <v>18600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-23800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-12200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1230,43 +1266,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="F21" s="3">
         <v>13500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="I21" s="3">
-        <v>-28700</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="3">
         <v>-16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-21000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1279,17 +1318,17 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>3900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1303,58 +1342,64 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-15000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-30000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1379,8 +1424,8 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1397,8 +1442,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1441,96 +1489,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>13500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-30000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>13500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-30000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1573,13 +1630,16 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1588,25 +1648,25 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-5400</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-1600</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6900</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1617,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1661,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1705,8 +1771,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1714,87 +1783,93 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-18600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>23800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>12200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>13500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-30000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-17800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1837,101 +1912,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>13500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-30000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-17800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>40633</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1948,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1966,8 +2051,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1996,11 +2082,11 @@
         <v>9100</v>
       </c>
       <c r="L41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M41" s="3">
         <v>15600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2010,8 +2096,11 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2143,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2084,11 +2176,11 @@
         <v>6600</v>
       </c>
       <c r="L43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2098,8 +2190,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2130,8 +2225,8 @@
       <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2142,8 +2237,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2172,11 +2270,11 @@
         <v>2600</v>
       </c>
       <c r="L45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M45" s="3">
         <v>5900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2186,8 +2284,11 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2216,11 +2317,11 @@
         <v>18500</v>
       </c>
       <c r="L46" s="3">
+        <v>18500</v>
+      </c>
+      <c r="M46" s="3">
         <v>21800</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2230,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2260,11 +2364,11 @@
         <v>105400</v>
       </c>
       <c r="L47" s="3">
+        <v>105400</v>
+      </c>
+      <c r="M47" s="3">
         <v>114400</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2274,8 +2378,11 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2304,11 +2411,11 @@
         <v>30200</v>
       </c>
       <c r="L48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="M48" s="3">
         <v>30800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2318,8 +2425,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2362,8 +2472,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2406,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2450,8 +2566,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2482,8 +2601,8 @@
       <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>300</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2494,8 +2613,11 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2538,8 +2660,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2568,11 +2693,11 @@
         <v>154300</v>
       </c>
       <c r="L54" s="3">
+        <v>154300</v>
+      </c>
+      <c r="M54" s="3">
         <v>167200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2582,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2600,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2618,8 +2747,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2650,8 +2780,8 @@
       <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="M57" s="3">
+        <v>300</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
@@ -2662,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2706,8 +2839,11 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2736,11 +2872,11 @@
         <v>3200</v>
       </c>
       <c r="L59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2750,8 +2886,11 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2780,11 +2919,11 @@
         <v>3500</v>
       </c>
       <c r="L60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2794,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2838,8 +2980,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2870,8 +3015,8 @@
       <c r="L62" s="3">
         <v>1400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>1400</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
@@ -2882,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2926,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2970,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3014,8 +3168,11 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3044,11 +3201,11 @@
         <v>4900</v>
       </c>
       <c r="L66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="M66" s="3">
         <v>3600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3058,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3076,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3120,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3164,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3208,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3252,8 +3422,11 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3282,11 +3455,11 @@
         <v>-225600</v>
       </c>
       <c r="L72" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="M72" s="3">
         <v>-210700</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3296,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3340,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3384,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3428,8 +3610,11 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3458,11 +3643,11 @@
         <v>149400</v>
       </c>
       <c r="L76" s="3">
+        <v>149400</v>
+      </c>
+      <c r="M76" s="3">
         <v>163600</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3472,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3516,101 +3704,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>40633</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>13500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-30000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-17800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3627,13 +3824,14 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -3642,37 +3840,40 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-1800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3715,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3759,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3803,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3847,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3891,52 +4104,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7600</v>
       </c>
-      <c r="E89" s="3">
-        <v>-1300</v>
-      </c>
       <c r="F89" s="3">
-        <v>-6600</v>
+        <v>-7900</v>
       </c>
       <c r="G89" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
         <v>-4700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3953,52 +4172,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4041,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4085,52 +4311,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3">
         <v>-144800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-2800</v>
-      </c>
       <c r="F94" s="3">
-        <v>-113800</v>
+        <v>-116600</v>
       </c>
       <c r="G94" s="3">
+        <v>-101700</v>
+      </c>
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4147,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4191,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4235,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4279,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4323,52 +4565,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
         <v>135200</v>
       </c>
-      <c r="E100" s="3">
-        <v>2700</v>
-      </c>
       <c r="F100" s="3">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="G100" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="H100" s="3">
         <v>157600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4900</v>
       </c>
-      <c r="I100" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>39900</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>149100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4411,48 +4659,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17200</v>
       </c>
-      <c r="E102" s="3">
-        <v>-1400</v>
-      </c>
       <c r="F102" s="3">
-        <v>-119100</v>
+        <v>-120500</v>
       </c>
       <c r="G102" s="3">
+        <v>-261100</v>
+      </c>
+      <c r="H102" s="3">
         <v>147400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
-        <v>-7100</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>12100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>143200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,84 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>40633</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,8 +788,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,14 +835,20 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3">
         <v>1200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,14 +888,20 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,8 +919,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,46 +930,52 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
+        <v>300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>300</v>
+      </c>
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1021,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,16 +1074,22 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1051,38 +1097,44 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1700</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,55 +1149,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>6500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>-1300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>-4200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>9000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,46 +1213,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G18" s="3">
         <v>-6500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-6100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,102 +1276,116 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>18600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-23800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-12200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-14800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-15000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>13500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3">
         <v>-16000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-21000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-6200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1321,20 +1401,20 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>3900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1345,93 +1425,105 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="3">
         <v>-15000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-30000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-16000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-22900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1445,8 +1537,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1590,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-30000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-16000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-22900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-16000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-22900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,46 +1749,52 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-5400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-6900</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1680,8 +1802,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1855,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,102 +1908,120 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
         <v>8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-18600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>23800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>12200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>14800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-30000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-17800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-22900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +2067,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-30000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-17800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-22900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>40633</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2203,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,55 +2224,63 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="3">
         <v>12400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>31000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>150100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2000</v>
       </c>
-      <c r="J41" s="3">
-        <v>9100</v>
-      </c>
       <c r="K41" s="3">
-        <v>9100</v>
+        <v>2000</v>
       </c>
       <c r="L41" s="3">
         <v>9100</v>
       </c>
       <c r="M41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="N41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O41" s="3">
         <v>15600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,55 +2326,67 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>10000</v>
       </c>
-      <c r="J43" s="3">
-        <v>6600</v>
-      </c>
       <c r="K43" s="3">
-        <v>6600</v>
+        <v>10000</v>
       </c>
       <c r="L43" s="3">
         <v>6600</v>
       </c>
       <c r="M43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2210,8 +2402,8 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
         <v>100</v>
@@ -2228,11 +2420,11 @@
       <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
+        <v>100</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
@@ -2240,196 +2432,226 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="3">
         <v>1100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3400</v>
       </c>
-      <c r="J45" s="3">
-        <v>2600</v>
-      </c>
       <c r="K45" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="L45" s="3">
         <v>2600</v>
       </c>
       <c r="M45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O45" s="3">
         <v>5900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3">
         <v>14700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>37200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>39600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>155800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>15500</v>
       </c>
-      <c r="J46" s="3">
-        <v>18500</v>
-      </c>
       <c r="K46" s="3">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="L46" s="3">
         <v>18500</v>
       </c>
       <c r="M46" s="3">
+        <v>18500</v>
+      </c>
+      <c r="N46" s="3">
+        <v>18500</v>
+      </c>
+      <c r="O46" s="3">
         <v>21800</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="3">
         <v>393600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>247300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>226100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>109600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>105200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>91500</v>
       </c>
-      <c r="J47" s="3">
-        <v>105400</v>
-      </c>
       <c r="K47" s="3">
-        <v>105400</v>
+        <v>91500</v>
       </c>
       <c r="L47" s="3">
         <v>105400</v>
       </c>
       <c r="M47" s="3">
+        <v>105400</v>
+      </c>
+      <c r="N47" s="3">
+        <v>105400</v>
+      </c>
+      <c r="O47" s="3">
         <v>114400</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
       </c>
       <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>28400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>29000</v>
       </c>
-      <c r="J48" s="3">
-        <v>30200</v>
-      </c>
       <c r="K48" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="L48" s="3">
         <v>30200</v>
       </c>
       <c r="M48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="N48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="O48" s="3">
         <v>30800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2697,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2750,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,8 +2803,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,11 +2823,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2604,11 +2844,11 @@
       <c r="M52" s="3">
         <v>300</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>300</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -2616,8 +2856,14 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,55 +2909,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
         <v>408400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>284600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>265700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>265400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>142800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>136100</v>
       </c>
-      <c r="J54" s="3">
-        <v>154300</v>
-      </c>
       <c r="K54" s="3">
-        <v>154300</v>
+        <v>136100</v>
       </c>
       <c r="L54" s="3">
         <v>154300</v>
       </c>
       <c r="M54" s="3">
+        <v>154300</v>
+      </c>
+      <c r="N54" s="3">
+        <v>154300</v>
+      </c>
+      <c r="O54" s="3">
         <v>167200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2987,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,34 +3008,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>600</v>
       </c>
       <c r="F57" s="3">
         <v>600</v>
       </c>
       <c r="G57" s="3">
+        <v>600</v>
+      </c>
+      <c r="H57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
-        <v>300</v>
-      </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -2783,11 +3045,11 @@
       <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
+        <v>300</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
@@ -2795,8 +3057,14 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2812,17 +3080,17 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
         <v>15600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
+      <c r="K58" s="3">
+        <v>10000</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
@@ -2842,111 +3110,129 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2400</v>
       </c>
-      <c r="J59" s="3">
-        <v>3200</v>
-      </c>
       <c r="K59" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="L59" s="3">
         <v>3200</v>
       </c>
       <c r="M59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>19800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13000</v>
       </c>
-      <c r="J60" s="3">
-        <v>3500</v>
-      </c>
       <c r="K60" s="3">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="L60" s="3">
         <v>3500</v>
       </c>
       <c r="M60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E61" s="3">
         <v>12600</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2983,8 +3269,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,20 +3289,20 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>1500</v>
       </c>
       <c r="J62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="L62" s="3">
         <v>1400</v>
@@ -3018,11 +3310,11 @@
       <c r="M62" s="3">
         <v>1400</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1400</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
@@ -3030,8 +3322,14 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3375,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3428,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,55 +3481,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>16600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>14500</v>
       </c>
-      <c r="J66" s="3">
-        <v>4900</v>
-      </c>
       <c r="K66" s="3">
-        <v>4900</v>
+        <v>14500</v>
       </c>
       <c r="L66" s="3">
         <v>4900</v>
       </c>
       <c r="M66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O66" s="3">
         <v>3600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3559,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3608,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3661,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3378,8 +3714,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,55 +3767,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" s="3">
         <v>-150600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-135600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-149000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-147400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-256700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-255500</v>
       </c>
-      <c r="J72" s="3">
-        <v>-225600</v>
-      </c>
       <c r="K72" s="3">
-        <v>-225600</v>
+        <v>-255500</v>
       </c>
       <c r="L72" s="3">
         <v>-225600</v>
       </c>
       <c r="M72" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="O72" s="3">
         <v>-210700</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3873,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3926,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,55 +3979,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3">
         <v>391800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>280800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>262100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>261400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>121500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>121600</v>
       </c>
-      <c r="J76" s="3">
-        <v>149400</v>
-      </c>
       <c r="K76" s="3">
-        <v>149400</v>
+        <v>121600</v>
       </c>
       <c r="L76" s="3">
         <v>149400</v>
       </c>
       <c r="M76" s="3">
+        <v>149400</v>
+      </c>
+      <c r="N76" s="3">
+        <v>149400</v>
+      </c>
+      <c r="O76" s="3">
         <v>163600</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +4085,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>40633</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-30000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-17800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-22900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,55 +4221,63 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>-1800</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4323,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4376,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4429,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4482,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4535,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="F89" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I89" s="3">
         <v>11800</v>
       </c>
-      <c r="H89" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" s="3">
         <v>-4700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-4800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-7500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,8 +4613,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4199,29 +4641,35 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4715,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4768,67 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
         <v>-144800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-116600</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-101700</v>
       </c>
-      <c r="H94" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" s="3">
         <v>-2600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-20300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4846,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4895,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4948,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +5001,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,55 +5054,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>135200</v>
       </c>
-      <c r="F100" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I100" s="3">
         <v>-171200</v>
       </c>
-      <c r="H100" s="3">
-        <v>157600</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>172500</v>
+      </c>
+      <c r="K100" s="3">
         <v>4900</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>39900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>149100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +5160,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G102" s="3">
         <v>-17200</v>
       </c>
-      <c r="F102" s="3">
-        <v>-120500</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I102" s="3">
         <v>-261100</v>
       </c>
-      <c r="H102" s="3">
-        <v>147400</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>12100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>143200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,84 +665,88 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>40633</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -841,14 +848,17 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,14 +904,17 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
         <v>-1200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +934,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
-        <v>300</v>
-      </c>
-      <c r="F12" s="3">
-        <v>300</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>200</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,31 +1044,34 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>51600</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1080,16 +1100,19 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1103,38 +1126,41 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>1200</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1700</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,61 +1177,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>6000</v>
       </c>
       <c r="E17" s="3">
-        <v>5800</v>
+        <v>4300</v>
       </c>
       <c r="F17" s="3">
-        <v>3800</v>
+        <v>6900</v>
       </c>
       <c r="G17" s="3">
-        <v>6500</v>
+        <v>58800</v>
       </c>
       <c r="H17" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-4200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,52 +1243,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-5800</v>
+        <v>-4300</v>
       </c>
       <c r="F18" s="3">
-        <v>-3800</v>
+        <v>-6900</v>
       </c>
       <c r="G18" s="3">
-        <v>-6500</v>
+        <v>-58800</v>
       </c>
       <c r="H18" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,114 +1311,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+      <c r="E20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>25800</v>
       </c>
       <c r="G20" s="3">
-        <v>-8500</v>
+        <v>18600</v>
       </c>
       <c r="H20" s="3">
-        <v>18600</v>
+        <v>-7200</v>
       </c>
       <c r="I20" s="3">
-        <v>2200</v>
+        <v>19900</v>
       </c>
       <c r="J20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-14800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-400</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>18900</v>
       </c>
       <c r="G21" s="3">
+        <v>-40100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>13500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>1200</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-21000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-6200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-8600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1398,8 +1438,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1407,17 +1447,17 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
         <v>3900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1431,67 +1471,73 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>18800</v>
       </c>
       <c r="G23" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-15000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-30000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1516,8 +1562,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1525,8 +1571,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1543,8 +1589,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>18800</v>
       </c>
       <c r="G26" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-15000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-30000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-9100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>18800</v>
       </c>
       <c r="G27" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="H27" s="3">
         <v>-15000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-9100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1779,25 +1840,25 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-5400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-6900</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +1981,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+      <c r="E32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-25800</v>
       </c>
       <c r="G32" s="3">
-        <v>8500</v>
+        <v>-18600</v>
       </c>
       <c r="H32" s="3">
-        <v>-18600</v>
+        <v>7200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2200</v>
+        <v>-19900</v>
       </c>
       <c r="J32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>14800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>400</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>18800</v>
       </c>
       <c r="G33" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="H33" s="3">
         <v>-15000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-30000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-9100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>18800</v>
       </c>
       <c r="G35" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="H35" s="3">
         <v>-15000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-30000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-9100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>40633</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,37 +2312,38 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7000</v>
+        <v>15300</v>
       </c>
       <c r="E41" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H41" s="3">
         <v>12400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>29600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>31000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>150100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2000</v>
       </c>
       <c r="K41" s="3">
         <v>2000</v>
       </c>
       <c r="L41" s="3">
-        <v>9100</v>
+        <v>2000</v>
       </c>
       <c r="M41" s="3">
         <v>9100</v>
@@ -2265,11 +2352,11 @@
         <v>9100</v>
       </c>
       <c r="O41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="P41" s="3">
         <v>15600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2279,8 +2366,11 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,37 +2422,40 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>1300</v>
       </c>
       <c r="E43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I43" s="3">
         <v>5100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>5200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>10000</v>
       </c>
       <c r="K43" s="3">
         <v>10000</v>
       </c>
       <c r="L43" s="3">
-        <v>6600</v>
+        <v>10000</v>
       </c>
       <c r="M43" s="3">
         <v>6600</v>
@@ -2371,11 +2464,11 @@
         <v>6600</v>
       </c>
       <c r="O43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2385,31 +2478,34 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2426,8 +2522,8 @@
       <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2438,37 +2534,40 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>400</v>
       </c>
       <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H45" s="3">
         <v>1100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>3300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>3400</v>
       </c>
       <c r="K45" s="3">
         <v>3400</v>
       </c>
       <c r="L45" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="M45" s="3">
         <v>2600</v>
@@ -2477,11 +2576,11 @@
         <v>2600</v>
       </c>
       <c r="O45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P45" s="3">
         <v>5900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2491,37 +2590,40 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>4</v>
+      <c r="D46" s="3">
+        <v>16900</v>
       </c>
       <c r="E46" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G46" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>37200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>39600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>155800</v>
-      </c>
-      <c r="I46" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>15500</v>
       </c>
       <c r="K46" s="3">
         <v>15500</v>
       </c>
       <c r="L46" s="3">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="M46" s="3">
         <v>18500</v>
@@ -2530,11 +2632,11 @@
         <v>18500</v>
       </c>
       <c r="O46" s="3">
+        <v>18500</v>
+      </c>
+      <c r="P46" s="3">
         <v>21800</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2544,37 +2646,40 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>371500</v>
       </c>
       <c r="E47" s="3">
+        <v>374600</v>
+      </c>
+      <c r="F47" s="3">
+        <v>379800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>355300</v>
+      </c>
+      <c r="H47" s="3">
         <v>393600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="I47" s="3">
         <v>247300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="J47" s="3">
         <v>226100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>109600</v>
-      </c>
-      <c r="I47" s="3">
-        <v>105200</v>
-      </c>
-      <c r="J47" s="3">
-        <v>91500</v>
       </c>
       <c r="K47" s="3">
         <v>91500</v>
       </c>
       <c r="L47" s="3">
-        <v>105400</v>
+        <v>91500</v>
       </c>
       <c r="M47" s="3">
         <v>105400</v>
@@ -2583,11 +2688,11 @@
         <v>105400</v>
       </c>
       <c r="O47" s="3">
+        <v>105400</v>
+      </c>
+      <c r="P47" s="3">
         <v>114400</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2597,37 +2702,40 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>28400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>29000</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>29000</v>
       </c>
       <c r="L48" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="M48" s="3">
         <v>30200</v>
@@ -2636,11 +2744,11 @@
         <v>30200</v>
       </c>
       <c r="O48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="P48" s="3">
         <v>30800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2650,8 +2758,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,31 +2926,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2850,8 +2970,8 @@
       <c r="O52" s="3">
         <v>300</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>300</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2862,8 +2982,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,37 +3038,40 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>388400</v>
       </c>
       <c r="E54" s="3">
+        <v>384800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>388600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>367100</v>
+      </c>
+      <c r="H54" s="3">
         <v>408400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>284600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>265700</v>
-      </c>
-      <c r="H54" s="3">
-        <v>265400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>142800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>136100</v>
       </c>
       <c r="K54" s="3">
         <v>136100</v>
       </c>
       <c r="L54" s="3">
-        <v>154300</v>
+        <v>136100</v>
       </c>
       <c r="M54" s="3">
         <v>154300</v>
@@ -2954,11 +3080,11 @@
         <v>154300</v>
       </c>
       <c r="O54" s="3">
+        <v>154300</v>
+      </c>
+      <c r="P54" s="3">
         <v>167200</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2968,8 +3094,11 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,37 +3140,38 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>900</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>700</v>
       </c>
       <c r="K57" s="3">
         <v>700</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3051,8 +3182,8 @@
       <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="P57" s="3">
+        <v>300</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
@@ -3063,37 +3194,40 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+      <c r="L58" s="3">
+        <v>10000</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
@@ -3116,37 +3250,40 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>3200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>3000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>4000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2400</v>
       </c>
       <c r="K59" s="3">
         <v>2400</v>
       </c>
       <c r="L59" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M59" s="3">
         <v>3200</v>
@@ -3155,11 +3292,11 @@
         <v>3200</v>
       </c>
       <c r="O59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3169,37 +3306,40 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>4</v>
+      <c r="D60" s="3">
+        <v>2300</v>
       </c>
       <c r="E60" s="3">
-        <v>4000</v>
+        <v>1300</v>
       </c>
       <c r="F60" s="3">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="G60" s="3">
-        <v>3500</v>
+        <v>1400</v>
       </c>
       <c r="H60" s="3">
         <v>4000</v>
       </c>
       <c r="I60" s="3">
-        <v>19800</v>
+        <v>3800</v>
       </c>
       <c r="J60" s="3">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="K60" s="3">
         <v>13000</v>
       </c>
       <c r="L60" s="3">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="M60" s="3">
         <v>3500</v>
@@ -3208,11 +3348,11 @@
         <v>3500</v>
       </c>
       <c r="O60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3222,25 +3362,28 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13000</v>
+        <v>12700</v>
       </c>
       <c r="E61" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>12700</v>
+      </c>
+      <c r="G61" s="3">
         <v>12600</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3275,37 +3418,40 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>1500</v>
       </c>
       <c r="L62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="M62" s="3">
         <v>1400</v>
@@ -3316,8 +3462,8 @@
       <c r="O62" s="3">
         <v>1400</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>1400</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,37 +3642,40 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>15100</v>
       </c>
       <c r="E66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F66" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="H66" s="3">
         <v>16600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>21300</v>
-      </c>
-      <c r="J66" s="3">
-        <v>14500</v>
       </c>
       <c r="K66" s="3">
         <v>14500</v>
       </c>
       <c r="L66" s="3">
-        <v>4900</v>
+        <v>14500</v>
       </c>
       <c r="M66" s="3">
         <v>4900</v>
@@ -3526,11 +3684,11 @@
         <v>4900</v>
       </c>
       <c r="O66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3540,8 +3698,11 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3720,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,37 +3944,40 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>4</v>
+      <c r="D72" s="3">
+        <v>-172600</v>
       </c>
       <c r="E72" s="3">
+        <v>-174500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-172000</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-190900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-150600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-135600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-149000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-147400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-256700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-255500</v>
       </c>
       <c r="K72" s="3">
         <v>-255500</v>
       </c>
       <c r="L72" s="3">
-        <v>-225600</v>
+        <v>-255500</v>
       </c>
       <c r="M72" s="3">
         <v>-225600</v>
@@ -3812,11 +3986,11 @@
         <v>-225600</v>
       </c>
       <c r="O72" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-210700</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3826,8 +4000,11 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,37 +4168,40 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>4</v>
+      <c r="D76" s="3">
+        <v>373400</v>
       </c>
       <c r="E76" s="3">
+        <v>370700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>373400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>353100</v>
+      </c>
+      <c r="H76" s="3">
         <v>391800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>280800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>262100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>261400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>121500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>121600</v>
       </c>
       <c r="K76" s="3">
         <v>121600</v>
       </c>
       <c r="L76" s="3">
-        <v>149400</v>
+        <v>121600</v>
       </c>
       <c r="M76" s="3">
         <v>149400</v>
@@ -4024,11 +4210,11 @@
         <v>149400</v>
       </c>
       <c r="O76" s="3">
+        <v>149400</v>
+      </c>
+      <c r="P76" s="3">
         <v>163600</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4038,8 +4224,11 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>40633</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>18800</v>
       </c>
       <c r="G81" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="H81" s="3">
         <v>-15000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-30000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-9100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,19 +4421,20 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4250,34 +4449,37 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
+      <c r="D89" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-1300</v>
       </c>
       <c r="G89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
-        <v>11800</v>
-      </c>
       <c r="J89" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K89" s="3">
         <v>-18400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
         <v>-4700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-5700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4647,29 +4868,32 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-144800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2800</v>
       </c>
-      <c r="I94" s="3">
-        <v>-101700</v>
-      </c>
       <c r="J94" s="3">
+        <v>-113800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-12100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3">
         <v>-2600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-20300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>135200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="I100" s="3">
-        <v>-171200</v>
-      </c>
       <c r="J100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K100" s="3">
         <v>172500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>39900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>149100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-1300</v>
       </c>
       <c r="G102" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="H102" s="3">
         <v>-17200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
-        <v>-261100</v>
-      </c>
       <c r="J102" s="3">
+        <v>-119100</v>
+      </c>
+      <c r="K102" s="3">
         <v>141900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
         <v>-7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>143200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,99 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>40633</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,8 +812,17 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,14 +871,23 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -907,14 +936,23 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3">
         <v>-1200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="W10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,64 +973,76 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>600</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>600</v>
       </c>
       <c r="P12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
+        <v>600</v>
+      </c>
+      <c r="S12" s="3">
         <v>2600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="T12" s="3">
         <v>1500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>2800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="V12" s="3">
         <v>3800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="W12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1097,17 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,11 +1117,11 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>51600</v>
+      <c r="F14" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1070,17 +1129,17 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>80300</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1103,8 +1162,17 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1129,38 +1197,47 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>1200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="U15" s="3">
         <v>1700</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,64 +1255,76 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16400</v>
+      </c>
+      <c r="G17" s="3">
         <v>6000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
-        <v>58800</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
+        <v>84300</v>
+      </c>
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>-1300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>-4200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>8100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>3400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>7500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>9000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1243,55 +1332,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H18" s="3">
         <v>-4300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-6900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-58800</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-7800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-6400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-5100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>4200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-3400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="U18" s="3">
         <v>-7500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="V18" s="3">
         <v>-9000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1410,11 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1321,55 +1422,64 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1900</v>
+        <v>6600</v>
       </c>
       <c r="F20" s="3">
-        <v>25800</v>
+        <v>14700</v>
       </c>
       <c r="G20" s="3">
-        <v>18600</v>
+        <v>10100</v>
       </c>
       <c r="H20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>19900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-23800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-12200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="U20" s="3">
         <v>-400</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1377,96 +1487,105 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-2400</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="3">
-        <v>18900</v>
+        <v>-1700</v>
       </c>
       <c r="G21" s="3">
-        <v>-40100</v>
+        <v>4200</v>
       </c>
       <c r="H21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-62500</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>13500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>1200</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-16000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-3100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="U21" s="3">
         <v>-6200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-8600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>400</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>3900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1474,90 +1593,108 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1900</v>
+        <v>-3600</v>
       </c>
       <c r="E23" s="3">
-        <v>-2400</v>
+        <v>800</v>
       </c>
       <c r="F23" s="3">
-        <v>18800</v>
+        <v>-2200</v>
       </c>
       <c r="G23" s="3">
-        <v>-40300</v>
+        <v>4000</v>
       </c>
       <c r="H23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>13500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-30000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-16000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-3700</v>
       </c>
       <c r="R23" s="3">
         <v>-8000</v>
       </c>
       <c r="S23" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="V23" s="3">
         <v>-9100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1565,23 +1702,23 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1592,8 +1729,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1794,147 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>-3600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2400</v>
+        <v>800</v>
       </c>
       <c r="F26" s="3">
-        <v>18800</v>
+        <v>-3800</v>
       </c>
       <c r="G26" s="3">
-        <v>-40300</v>
+        <v>3500</v>
       </c>
       <c r="H26" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-3900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-30000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-16000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-3700</v>
       </c>
       <c r="R26" s="3">
         <v>-8000</v>
       </c>
       <c r="S26" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="V26" s="3">
         <v>-9100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>-3600</v>
       </c>
       <c r="E27" s="3">
-        <v>-2400</v>
+        <v>800</v>
       </c>
       <c r="F27" s="3">
-        <v>18800</v>
+        <v>-3800</v>
       </c>
       <c r="G27" s="3">
-        <v>-40300</v>
+        <v>3500</v>
       </c>
       <c r="H27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-3900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-16000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-22900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-3700</v>
       </c>
       <c r="R27" s="3">
         <v>-8000</v>
       </c>
       <c r="S27" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="V27" s="3">
         <v>-9100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1989,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1830,50 +2012,59 @@
       <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-5400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="O29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
         <v>-6900</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +2119,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +2184,17 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1993,111 +2202,129 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-1900</v>
+        <v>-6600</v>
       </c>
       <c r="F32" s="3">
-        <v>-25800</v>
+        <v>-14700</v>
       </c>
       <c r="G32" s="3">
-        <v>-18600</v>
+        <v>-10100</v>
       </c>
       <c r="H32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-19900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>23800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>12200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>14800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="U32" s="3">
         <v>400</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1900</v>
+        <v>-3600</v>
       </c>
       <c r="E33" s="3">
-        <v>-2400</v>
+        <v>800</v>
       </c>
       <c r="F33" s="3">
-        <v>18800</v>
+        <v>-3800</v>
       </c>
       <c r="G33" s="3">
-        <v>-40300</v>
+        <v>3500</v>
       </c>
       <c r="H33" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-30000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-17800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-9100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2379,152 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1900</v>
+        <v>-3600</v>
       </c>
       <c r="E35" s="3">
-        <v>-2400</v>
+        <v>800</v>
       </c>
       <c r="F35" s="3">
-        <v>18800</v>
+        <v>-3800</v>
       </c>
       <c r="G35" s="3">
-        <v>-40300</v>
+        <v>3500</v>
       </c>
       <c r="H35" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-30000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-17800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-9100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>40633</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2545,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2570,76 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>17000</v>
+      </c>
+      <c r="G41" s="3">
         <v>15300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>7300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>12400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>29600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>31000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>9100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>9100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>9100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>15600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,64 +2694,82 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>15600</v>
+      </c>
+      <c r="G43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>2200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>5100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>5200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>10000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>10000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>6600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>6600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>6600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2508,13 +2795,13 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2525,244 +2812,289 @@
       <c r="P44" s="3">
         <v>100</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>100</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>1100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>3400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>3400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>2600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>2600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>2600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>5900</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>29900</v>
+      </c>
+      <c r="F46" s="3">
+        <v>35600</v>
+      </c>
+      <c r="G46" s="3">
         <v>16900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>10100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>8800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>11800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>14700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>37200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>39600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>15500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>15500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>18500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>18500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>18500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>21800</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>371500</v>
+        <v>354300</v>
       </c>
       <c r="E47" s="3">
-        <v>374600</v>
+        <v>352800</v>
       </c>
       <c r="F47" s="3">
+        <v>347800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>341100</v>
+      </c>
+      <c r="H47" s="3">
+        <v>342600</v>
+      </c>
+      <c r="I47" s="3">
         <v>379800</v>
       </c>
-      <c r="G47" s="3">
-        <v>355300</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
+        <v>333400</v>
+      </c>
+      <c r="K47" s="3">
         <v>393600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>247300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>226100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>91500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>91500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>105400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="Q47" s="3">
         <v>105400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="R47" s="3">
         <v>105400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="S47" s="3">
         <v>114400</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3">
         <v>29000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>29000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>30200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>30200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>30200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>30800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +3149,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +3214,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3279,17 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2938,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2953,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
       </c>
       <c r="N52" s="3">
         <v>300</v>
@@ -2973,20 +3332,29 @@
       <c r="P52" s="3">
         <v>300</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>300</v>
+      </c>
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+      <c r="S52" s="3">
+        <v>300</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3409,82 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>388400</v>
+        <v>381300</v>
       </c>
       <c r="E54" s="3">
-        <v>384800</v>
+        <v>382800</v>
       </c>
       <c r="F54" s="3">
+        <v>383500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>358000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>352800</v>
+      </c>
+      <c r="I54" s="3">
         <v>388600</v>
       </c>
-      <c r="G54" s="3">
-        <v>367100</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
+        <v>345200</v>
+      </c>
+      <c r="K54" s="3">
         <v>408400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>284600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>265700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>136100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>136100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>154300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>154300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>154300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>167200</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3505,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,64 +3530,76 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>600</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
+        <v>300</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3224,20 +3625,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>10000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3253,147 +3654,174 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>25800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>2400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>2400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>24000</v>
+      </c>
+      <c r="F60" s="3">
+        <v>26400</v>
+      </c>
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>13000</v>
-      </c>
-      <c r="L60" s="3">
-        <v>13000</v>
       </c>
       <c r="M60" s="3">
         <v>3500</v>
       </c>
       <c r="N60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="O60" s="3">
+        <v>13000</v>
+      </c>
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>8700</v>
+      </c>
+      <c r="G61" s="3">
         <v>12700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>12700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>12700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>12600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>12600</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3421,8 +3849,17 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3448,37 +3885,46 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>1500</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1400</v>
       </c>
       <c r="P62" s="3">
         <v>1400</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S62" s="3">
+        <v>1400</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3979,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +4044,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +4109,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>35000</v>
+      </c>
+      <c r="G66" s="3">
         <v>15100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>14000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>14000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>16600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>14500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>4900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>4900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>4900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +4205,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +4264,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4329,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3891,8 +4394,17 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4459,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-172600</v>
+        <v>-201500</v>
       </c>
       <c r="E72" s="3">
-        <v>-174500</v>
+        <v>-197900</v>
       </c>
       <c r="F72" s="3">
+        <v>-198700</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-203500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-207000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-172000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-190900</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
+        <v>-213300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-150600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-135600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-149000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-255500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-255500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-225600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-225600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-225600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-210700</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4589,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4654,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4719,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>346900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>350100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>348500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>343000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>338700</v>
+      </c>
+      <c r="I76" s="3">
         <v>373400</v>
       </c>
-      <c r="E76" s="3">
-        <v>370700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>373400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>353100</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
+        <v>331200</v>
+      </c>
+      <c r="K76" s="3">
         <v>391800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>280800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>262100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>121600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>121600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>149400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>149400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>149400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>163600</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4849,152 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>40633</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1900</v>
+        <v>-3600</v>
       </c>
       <c r="E81" s="3">
-        <v>-2400</v>
+        <v>800</v>
       </c>
       <c r="F81" s="3">
-        <v>18800</v>
+        <v>-3800</v>
       </c>
       <c r="G81" s="3">
-        <v>-40300</v>
+        <v>3500</v>
       </c>
       <c r="H81" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-62700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-30000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-17800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-22900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-9100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +5015,11 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4452,34 +5048,43 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>1900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="T83" s="3">
         <v>600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="U83" s="3">
         <v>1700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="W83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +5139,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +5204,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +5269,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +5334,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +5399,82 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G89" s="3">
         <v>8000</v>
       </c>
-      <c r="E89" s="3">
-        <v>9400</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-6000</v>
-      </c>
       <c r="H89" s="3">
-        <v>-7600</v>
+        <v>2000</v>
       </c>
       <c r="I89" s="3">
         <v>-1300</v>
       </c>
       <c r="J89" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-18400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-4700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-4900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="V89" s="3">
         <v>-5700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="W89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5495,11 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4860,40 +5522,49 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="W91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5619,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5684,17 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5013,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-7400</v>
+        <v>0</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5022,46 +5711,55 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-144800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-2800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-113800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-12100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-2600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-1600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-20300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="W94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5780,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5839,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5904,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5969,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +6034,17 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5318,52 +6055,61 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-4100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>135200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>172500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>4900</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>39900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>149100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +6164,78 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G102" s="3">
         <v>8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-5800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>-17200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-119100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>141900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>1700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>-6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>12100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-2500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>-5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>143200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GATO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>GATO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,103 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>40633</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,8 +825,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -880,14 +887,17 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -945,14 +955,17 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
         <v>-1200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-2500</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,19 +989,20 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
@@ -996,53 +1010,56 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>200</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>2800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>3800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1117,32 +1137,32 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>7900</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>80300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1206,38 +1229,41 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>1200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1700</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,73 +1284,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="3">
         <v>6200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>16400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>84300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-1300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-4200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>18500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1332,64 +1362,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-6000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-84300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-18500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1422,64 +1456,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F20" s="3">
         <v>6600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>14700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>10100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>21800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>19900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-15000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-12200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-14800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-400</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1487,78 +1524,81 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-62500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>13500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>1200</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-16000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-21000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-8600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-17700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>200</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
       </c>
       <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1567,28 +1607,28 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>3900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1602,102 +1642,108 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-62700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-16000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-8000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1711,8 +1757,8 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>4</v>
@@ -1720,8 +1766,8 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1738,8 +1784,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-62700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-16000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-22900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-9100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-62700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-16000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-22900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-9100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2021,8 +2082,8 @@
       <c r="I29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2034,25 +2095,25 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-5400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-6900</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2202,129 +2272,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-14700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-10100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-21800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-19900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>15000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>12200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>14800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>400</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-62700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-17800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-14900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-22900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-9100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-62700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-17800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-14900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-22900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-9100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>40633</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,49 +2659,50 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E41" s="3">
         <v>9100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>17000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>31000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2000</v>
       </c>
       <c r="O41" s="3">
         <v>2000</v>
       </c>
       <c r="P41" s="3">
-        <v>9100</v>
+        <v>2000</v>
       </c>
       <c r="Q41" s="3">
         <v>9100</v>
@@ -2624,11 +2711,11 @@
         <v>9100</v>
       </c>
       <c r="S41" s="3">
+        <v>9100</v>
+      </c>
+      <c r="T41" s="3">
         <v>15600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2638,8 +2725,11 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,8 +2793,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2712,40 +2805,40 @@
         <v>16100</v>
       </c>
       <c r="E43" s="3">
+        <v>16100</v>
+      </c>
+      <c r="F43" s="3">
         <v>14600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>10000</v>
       </c>
       <c r="O43" s="3">
         <v>10000</v>
       </c>
       <c r="P43" s="3">
-        <v>6600</v>
+        <v>10000</v>
       </c>
       <c r="Q43" s="3">
         <v>6600</v>
@@ -2754,11 +2847,11 @@
         <v>6600</v>
       </c>
       <c r="S43" s="3">
+        <v>6600</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2804,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2821,8 +2917,8 @@
       <c r="S44" s="3">
         <v>100</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>100</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -2833,49 +2929,52 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3400</v>
       </c>
       <c r="O45" s="3">
         <v>3400</v>
       </c>
       <c r="P45" s="3">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="Q45" s="3">
         <v>2600</v>
@@ -2884,11 +2983,11 @@
         <v>2600</v>
       </c>
       <c r="S45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T45" s="3">
         <v>5900</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2898,49 +2997,52 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E46" s="3">
         <v>27000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>29900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>37200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>39600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>15500</v>
       </c>
       <c r="O46" s="3">
         <v>15500</v>
       </c>
       <c r="P46" s="3">
-        <v>18500</v>
+        <v>15500</v>
       </c>
       <c r="Q46" s="3">
         <v>18500</v>
@@ -2949,11 +3051,11 @@
         <v>18500</v>
       </c>
       <c r="S46" s="3">
+        <v>18500</v>
+      </c>
+      <c r="T46" s="3">
         <v>21800</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2963,49 +3065,52 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>328700</v>
+      </c>
+      <c r="E47" s="3">
         <v>354300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>352800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>347800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>341100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>342600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>379800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>333400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>393600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>247300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>226100</v>
-      </c>
-      <c r="N47" s="3">
-        <v>91500</v>
       </c>
       <c r="O47" s="3">
         <v>91500</v>
       </c>
       <c r="P47" s="3">
-        <v>105400</v>
+        <v>91500</v>
       </c>
       <c r="Q47" s="3">
         <v>105400</v>
@@ -3014,11 +3119,11 @@
         <v>105400</v>
       </c>
       <c r="S47" s="3">
+        <v>105400</v>
+      </c>
+      <c r="T47" s="3">
         <v>114400</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3028,8 +3133,11 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3054,8 +3162,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -3063,14 +3171,14 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>29000</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>29000</v>
       </c>
       <c r="P48" s="3">
-        <v>30200</v>
+        <v>29000</v>
       </c>
       <c r="Q48" s="3">
         <v>30200</v>
@@ -3079,11 +3187,11 @@
         <v>30200</v>
       </c>
       <c r="S48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="T48" s="3">
         <v>30800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3093,8 +3201,11 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3297,13 +3417,13 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3321,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -3341,8 +3461,8 @@
       <c r="S52" s="3">
         <v>300</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="T52" s="3">
+        <v>300</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3353,8 +3473,11 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,49 +3541,52 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>379300</v>
+      </c>
+      <c r="E54" s="3">
         <v>381300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>382800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>383500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>358000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>352800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>388600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>345200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>408400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>284600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>265700</v>
-      </c>
-      <c r="N54" s="3">
-        <v>136100</v>
       </c>
       <c r="O54" s="3">
         <v>136100</v>
       </c>
       <c r="P54" s="3">
-        <v>154300</v>
+        <v>136100</v>
       </c>
       <c r="Q54" s="3">
         <v>154300</v>
@@ -3469,11 +3595,11 @@
         <v>154300</v>
       </c>
       <c r="S54" s="3">
+        <v>154300</v>
+      </c>
+      <c r="T54" s="3">
         <v>167200</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3483,8 +3609,11 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,49 +3663,50 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>600</v>
       </c>
       <c r="M57" s="3">
         <v>600</v>
       </c>
       <c r="N57" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3586,8 +3717,8 @@
       <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="T57" s="3">
+        <v>300</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3634,13 +3768,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>10000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>10000</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3663,49 +3797,52 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E59" s="3">
         <v>25200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>25800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2400</v>
       </c>
       <c r="O59" s="3">
         <v>2400</v>
       </c>
       <c r="P59" s="3">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="Q59" s="3">
         <v>3200</v>
@@ -3714,11 +3851,11 @@
         <v>3200</v>
       </c>
       <c r="S59" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3728,49 +3865,52 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
         <v>25700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>24000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>26400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>13000</v>
       </c>
       <c r="O60" s="3">
         <v>13000</v>
       </c>
       <c r="P60" s="3">
-        <v>3500</v>
+        <v>13000</v>
       </c>
       <c r="Q60" s="3">
         <v>3500</v>
@@ -3779,11 +3919,11 @@
         <v>3500</v>
       </c>
       <c r="S60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3793,13 +3933,16 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>8700</v>
@@ -3808,7 +3951,7 @@
         <v>8700</v>
       </c>
       <c r="G61" s="3">
-        <v>12700</v>
+        <v>8700</v>
       </c>
       <c r="H61" s="3">
         <v>12700</v>
@@ -3817,13 +3960,13 @@
         <v>12700</v>
       </c>
       <c r="J61" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="K61" s="3">
         <v>12600</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>12600</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3858,8 +4001,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3894,13 +4040,13 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>1500</v>
       </c>
       <c r="P62" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q62" s="3">
         <v>1400</v>
@@ -3911,8 +4057,8 @@
       <c r="S62" s="3">
         <v>1400</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
+      <c r="T62" s="3">
+        <v>1400</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,49 +4273,52 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>34400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>32700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>35000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>15100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>14000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
-      </c>
-      <c r="N66" s="3">
-        <v>14500</v>
       </c>
       <c r="O66" s="3">
         <v>14500</v>
       </c>
       <c r="P66" s="3">
-        <v>4900</v>
+        <v>14500</v>
       </c>
       <c r="Q66" s="3">
         <v>4900</v>
@@ -4169,11 +4327,11 @@
         <v>4900</v>
       </c>
       <c r="S66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4183,8 +4341,11 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,49 +4639,52 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-201500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-197900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-198700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-203500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-207000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-172000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-213300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-150600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-135600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-149000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-255500</v>
       </c>
       <c r="O72" s="3">
         <v>-255500</v>
       </c>
       <c r="P72" s="3">
-        <v>-225600</v>
+        <v>-255500</v>
       </c>
       <c r="Q72" s="3">
         <v>-225600</v>
@@ -4519,11 +4693,11 @@
         <v>-225600</v>
       </c>
       <c r="S72" s="3">
+        <v>-225600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-210700</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4533,8 +4707,11 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,49 +4911,52 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>352900</v>
+      </c>
+      <c r="E76" s="3">
         <v>346900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>350100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>348500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>343000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>338700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>373400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>331200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>391800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>280800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>262100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>121600</v>
       </c>
       <c r="O76" s="3">
         <v>121600</v>
       </c>
       <c r="P76" s="3">
-        <v>149400</v>
+        <v>121600</v>
       </c>
       <c r="Q76" s="3">
         <v>149400</v>
@@ -4779,11 +4965,11 @@
         <v>149400</v>
       </c>
       <c r="S76" s="3">
+        <v>149400</v>
+      </c>
+      <c r="T76" s="3">
         <v>163600</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4793,8 +4979,11 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>40633</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>40543</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-62700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-17800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-14900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-22900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-9100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5057,34 +5256,37 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>600</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-18400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-4700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-5700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5531,40 +5752,43 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,13 +5920,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5720,46 +5950,49 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-144800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-113800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-12100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3">
         <v>-2600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-20300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-30900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,23 +6286,26 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-4100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6067,49 +6313,52 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>135200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>172500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>39900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>149100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>48100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-3800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-119100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>141900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>-7500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>143200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>1300</v>
       </c>
     </row>
